--- a/Meta/properties.xlsx
+++ b/Meta/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theco\Desktop\Programozas\softtech\philosophers\Meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fegyo.benedek\Documents\ELTE\4.felev\softtech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24272110-EA06-4270-B967-C293E838CACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D09926-C6CF-437D-A98D-42BAE044DC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{19DD62D4-D805-4190-9880-A62446B5C8F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19DD62D4-D805-4190-9880-A62446B5C8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Épület/Objektum</t>
   </si>
@@ -126,14 +126,98 @@
   </si>
   <si>
     <t>Egy erdő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">width </t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>van-e tűz</t>
+  </si>
+  <si>
+    <t>van-e áram</t>
+  </si>
+  <si>
+    <t>van-e úthoz csatlakoztatva</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>a rajta lévő objektumnak az azonosítója</t>
+  </si>
+  <si>
+    <t>szomszéd e az erdő</t>
+  </si>
+  <si>
+    <t>Milyen tulajdonságai lehetnek egy objektumnak?</t>
+  </si>
+  <si>
+    <t>szomszéd e a stadion</t>
+  </si>
+  <si>
+    <t>lakók száma</t>
+  </si>
+  <si>
+    <t>elégedettség</t>
+  </si>
+  <si>
+    <t>lakók életkora?</t>
+  </si>
+  <si>
+    <t>adó mennyisége(ha egyszerűbb lokálisan)</t>
+  </si>
+  <si>
+    <t>milyen típusú objektum(lakóház/kiszolgáló/ipari)</t>
+  </si>
+  <si>
+    <t>fejlettségi szint metropolsihoz</t>
+  </si>
+  <si>
+    <t>Hogy tároljuk az objektumainkat? Van egy n^2es tömbünk amiben eltárolunk mindent amit létrehoztunk és az alapján jelenítünk meg és csak a módosításokat rajzoljuk újra, vagy a mezőknek egyenként nézzük a tulajdonságait? Esetleg vegyesen?</t>
+  </si>
+  <si>
+    <t>ha így csináljuk akkor elég a szomszéd mezőknél megnézni hogy van-e és a kreálásnál beállítani, vagy frissíteni</t>
+  </si>
+  <si>
+    <t>2×2</t>
+  </si>
+  <si>
+    <t>Növeli az elégedettséget, 10 évig nő</t>
+  </si>
+  <si>
+    <t>milyen fejlettségi szinten van</t>
+  </si>
+  <si>
+    <t>milyen fejlettségi szint, mennyi penzt koltesz rá s mennyi profitot hoz</t>
+  </si>
+  <si>
+    <t>-||-</t>
+  </si>
+  <si>
+    <t>fenttartási költség</t>
+  </si>
+  <si>
+    <t>profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,14 +246,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -185,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,21 +569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C0D724-3D31-4FC5-88BE-BCEB3FB8B144}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -526,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -534,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -545,21 +633,21 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -567,12 +655,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -581,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -595,12 +683,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -609,7 +697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -623,7 +711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -637,7 +725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -648,10 +736,109 @@
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>